--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.002281666666667</v>
+        <v>1.686881333333333</v>
       </c>
       <c r="N2">
-        <v>3.006845</v>
+        <v>5.060644</v>
       </c>
       <c r="O2">
-        <v>0.1474891317421017</v>
+        <v>0.3041642479870916</v>
       </c>
       <c r="P2">
-        <v>0.1474891317421017</v>
+        <v>0.3041642479870916</v>
       </c>
       <c r="Q2">
-        <v>150.3777615076378</v>
+        <v>286.6275500343693</v>
       </c>
       <c r="R2">
-        <v>1353.39985356874</v>
+        <v>2579.647950309324</v>
       </c>
       <c r="S2">
-        <v>0.06124497058100542</v>
+        <v>0.135084967493263</v>
       </c>
       <c r="T2">
-        <v>0.06124497058100541</v>
+        <v>0.135084967493263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.186996</v>
       </c>
       <c r="O3">
-        <v>0.009172364281912123</v>
+        <v>0.01123918175564102</v>
       </c>
       <c r="P3">
-        <v>0.009172364281912123</v>
+        <v>0.01123918175564102</v>
       </c>
       <c r="Q3">
-        <v>9.352008464314666</v>
+        <v>10.591182732124</v>
       </c>
       <c r="R3">
-        <v>84.16807617883198</v>
+        <v>95.320644589116</v>
       </c>
       <c r="S3">
-        <v>0.003808831023470012</v>
+        <v>0.004991528465817829</v>
       </c>
       <c r="T3">
-        <v>0.003808831023470012</v>
+        <v>0.004991528465817829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.902379666666667</v>
+        <v>0.9868993333333332</v>
       </c>
       <c r="N4">
-        <v>8.707139</v>
+        <v>2.960698</v>
       </c>
       <c r="O4">
-        <v>0.4270949686690841</v>
+        <v>0.1779493836529276</v>
       </c>
       <c r="P4">
-        <v>0.427094968669084</v>
+        <v>0.1779493836529276</v>
       </c>
       <c r="Q4">
-        <v>435.4597832465097</v>
+        <v>167.6896486161953</v>
       </c>
       <c r="R4">
-        <v>3919.138049218587</v>
+        <v>1509.206837545758</v>
       </c>
       <c r="S4">
-        <v>0.1773515002934055</v>
+        <v>0.07903061212908251</v>
       </c>
       <c r="T4">
-        <v>0.1773515002934055</v>
+        <v>0.07903061212908251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H5">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I5">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J5">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.828637333333333</v>
+        <v>2.809842666666667</v>
       </c>
       <c r="N5">
-        <v>8.485911999999999</v>
+        <v>8.429528000000001</v>
       </c>
       <c r="O5">
-        <v>0.4162435353069021</v>
+        <v>0.5066471866043398</v>
       </c>
       <c r="P5">
-        <v>0.4162435353069021</v>
+        <v>0.5066471866043397</v>
       </c>
       <c r="Q5">
-        <v>424.3958205064781</v>
+        <v>477.4362627732987</v>
       </c>
       <c r="R5">
-        <v>3819.562384558303</v>
+        <v>4296.926364959689</v>
       </c>
       <c r="S5">
-        <v>0.1728454345977265</v>
+        <v>0.2250113850852876</v>
       </c>
       <c r="T5">
-        <v>0.1728454345977264</v>
+        <v>0.2250113850852876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.002281666666667</v>
+        <v>1.686881333333333</v>
       </c>
       <c r="N6">
-        <v>3.006845</v>
+        <v>5.060644</v>
       </c>
       <c r="O6">
-        <v>0.1474891317421017</v>
+        <v>0.3041642479870916</v>
       </c>
       <c r="P6">
-        <v>0.1474891317421017</v>
+        <v>0.3041642479870916</v>
       </c>
       <c r="Q6">
-        <v>68.538268484445</v>
+        <v>115.352729248164</v>
       </c>
       <c r="R6">
-        <v>616.844416360005</v>
+        <v>1038.174563233476</v>
       </c>
       <c r="S6">
-        <v>0.02791386302681255</v>
+        <v>0.05436469620201868</v>
       </c>
       <c r="T6">
-        <v>0.02791386302681255</v>
+        <v>0.05436469620201868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.186996</v>
       </c>
       <c r="O7">
-        <v>0.009172364281912123</v>
+        <v>0.01123918175564102</v>
       </c>
       <c r="P7">
-        <v>0.009172364281912123</v>
+        <v>0.01123918175564102</v>
       </c>
       <c r="Q7">
         <v>4.262401970676</v>
@@ -883,10 +883,10 @@
         <v>38.361617736084</v>
       </c>
       <c r="S7">
-        <v>0.001735966014397762</v>
+        <v>0.002008831431531775</v>
       </c>
       <c r="T7">
-        <v>0.001735966014397762</v>
+        <v>0.002008831431531774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.902379666666667</v>
+        <v>0.9868993333333332</v>
       </c>
       <c r="N8">
-        <v>8.707139</v>
+        <v>2.960698</v>
       </c>
       <c r="O8">
-        <v>0.4270949686690841</v>
+        <v>0.1779493836529276</v>
       </c>
       <c r="P8">
-        <v>0.427094968669084</v>
+        <v>0.1779493836529276</v>
       </c>
       <c r="Q8">
-        <v>198.471231644259</v>
+        <v>67.486390028538</v>
       </c>
       <c r="R8">
-        <v>1786.241084798331</v>
+        <v>607.3775102568419</v>
       </c>
       <c r="S8">
-        <v>0.0808321963391587</v>
+        <v>0.03180572419556173</v>
       </c>
       <c r="T8">
-        <v>0.08083219633915867</v>
+        <v>0.03180572419556173</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.828637333333333</v>
+        <v>2.809842666666667</v>
       </c>
       <c r="N9">
-        <v>8.485911999999999</v>
+        <v>8.429528000000001</v>
       </c>
       <c r="O9">
-        <v>0.4162435353069021</v>
+        <v>0.5066471866043398</v>
       </c>
       <c r="P9">
-        <v>0.4162435353069021</v>
+        <v>0.5066471866043397</v>
       </c>
       <c r="Q9">
-        <v>193.428565486872</v>
+        <v>192.143344023768</v>
       </c>
       <c r="R9">
-        <v>1740.857089381848</v>
+        <v>1729.290096213912</v>
       </c>
       <c r="S9">
-        <v>0.07877844891425562</v>
+        <v>0.09055541722484534</v>
       </c>
       <c r="T9">
-        <v>0.0787784489142556</v>
+        <v>0.09055541722484532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.002281666666667</v>
+        <v>1.686881333333333</v>
       </c>
       <c r="N10">
-        <v>3.006845</v>
+        <v>5.060644</v>
       </c>
       <c r="O10">
-        <v>0.1474891317421017</v>
+        <v>0.3041642479870916</v>
       </c>
       <c r="P10">
-        <v>0.1474891317421017</v>
+        <v>0.3041642479870916</v>
       </c>
       <c r="Q10">
-        <v>38.24500369976666</v>
+        <v>89.86798563476532</v>
       </c>
       <c r="R10">
-        <v>344.2050332979</v>
+        <v>808.8118707128879</v>
       </c>
       <c r="S10">
-        <v>0.01557620025048508</v>
+        <v>0.04235396742811923</v>
       </c>
       <c r="T10">
-        <v>0.01557620025048508</v>
+        <v>0.04235396742811924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H11">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.186996</v>
       </c>
       <c r="O11">
-        <v>0.009172364281912123</v>
+        <v>0.01123918175564102</v>
       </c>
       <c r="P11">
-        <v>0.009172364281912123</v>
+        <v>0.01123918175564102</v>
       </c>
       <c r="Q11">
-        <v>2.37846071608</v>
+        <v>3.320714486487999</v>
       </c>
       <c r="R11">
-        <v>21.40614644472</v>
+        <v>29.886430378392</v>
       </c>
       <c r="S11">
-        <v>0.0009686854966051487</v>
+        <v>0.001565022651897384</v>
       </c>
       <c r="T11">
-        <v>0.0009686854966051486</v>
+        <v>0.001565022651897384</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H12">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.902379666666667</v>
+        <v>0.9868993333333332</v>
       </c>
       <c r="N12">
-        <v>8.707139</v>
+        <v>2.960698</v>
       </c>
       <c r="O12">
-        <v>0.4270949686690841</v>
+        <v>0.1779493836529276</v>
       </c>
       <c r="P12">
-        <v>0.427094968669084</v>
+        <v>0.1779493836529276</v>
       </c>
       <c r="Q12">
-        <v>110.7488291778867</v>
+        <v>52.57670077817732</v>
       </c>
       <c r="R12">
-        <v>996.73946260098</v>
+        <v>473.1903070035959</v>
       </c>
       <c r="S12">
-        <v>0.04510513201472256</v>
+        <v>0.02477892273325248</v>
       </c>
       <c r="T12">
-        <v>0.04510513201472254</v>
+        <v>0.02477892273325248</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H13">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.828637333333333</v>
+        <v>2.809842666666667</v>
       </c>
       <c r="N13">
-        <v>8.485911999999999</v>
+        <v>8.429528000000001</v>
       </c>
       <c r="O13">
-        <v>0.4162435353069021</v>
+        <v>0.5066471866043398</v>
       </c>
       <c r="P13">
-        <v>0.4162435353069021</v>
+        <v>0.5066471866043397</v>
       </c>
       <c r="Q13">
-        <v>107.9349736470933</v>
+        <v>149.6933396642507</v>
       </c>
       <c r="R13">
-        <v>971.41476282384</v>
+        <v>1347.240056978256</v>
       </c>
       <c r="S13">
-        <v>0.04395912147782621</v>
+        <v>0.07054911476610864</v>
       </c>
       <c r="T13">
-        <v>0.04395912147782621</v>
+        <v>0.07054911476610864</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H14">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I14">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J14">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.002281666666667</v>
+        <v>1.686881333333333</v>
       </c>
       <c r="N14">
-        <v>3.006845</v>
+        <v>5.060644</v>
       </c>
       <c r="O14">
-        <v>0.1474891317421017</v>
+        <v>0.3041642479870916</v>
       </c>
       <c r="P14">
-        <v>0.1474891317421017</v>
+        <v>0.3041642479870916</v>
       </c>
       <c r="Q14">
-        <v>104.976220480675</v>
+        <v>153.5370420224569</v>
       </c>
       <c r="R14">
-        <v>944.785984326075</v>
+        <v>1381.833378202112</v>
       </c>
       <c r="S14">
-        <v>0.04275409788379869</v>
+        <v>0.07236061686369069</v>
       </c>
       <c r="T14">
-        <v>0.04275409788379868</v>
+        <v>0.0723606168636907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H15">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I15">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J15">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.186996</v>
       </c>
       <c r="O15">
-        <v>0.009172364281912123</v>
+        <v>0.01123918175564102</v>
       </c>
       <c r="P15">
-        <v>0.009172364281912123</v>
+        <v>0.01123918175564102</v>
       </c>
       <c r="Q15">
-        <v>6.528481955340001</v>
+        <v>5.673351595178667</v>
       </c>
       <c r="R15">
-        <v>58.75633759806001</v>
+        <v>51.060164356608</v>
       </c>
       <c r="S15">
-        <v>0.0026588817474392</v>
+        <v>0.00267379920639403</v>
       </c>
       <c r="T15">
-        <v>0.002658881747439199</v>
+        <v>0.002673799206394029</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H16">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I16">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J16">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.902379666666667</v>
+        <v>0.9868993333333332</v>
       </c>
       <c r="N16">
-        <v>8.707139</v>
+        <v>2.960698</v>
       </c>
       <c r="O16">
-        <v>0.4270949686690841</v>
+        <v>0.1779493836529276</v>
       </c>
       <c r="P16">
-        <v>0.427094968669084</v>
+        <v>0.1779493836529276</v>
       </c>
       <c r="Q16">
-        <v>303.987250230685</v>
+        <v>89.82588248487821</v>
       </c>
       <c r="R16">
-        <v>2735.885252076165</v>
+        <v>808.432942363904</v>
       </c>
       <c r="S16">
-        <v>0.1238061400217973</v>
+        <v>0.04233412459503086</v>
       </c>
       <c r="T16">
-        <v>0.1238061400217973</v>
+        <v>0.04233412459503085</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H17">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I17">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J17">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.828637333333333</v>
+        <v>2.809842666666667</v>
       </c>
       <c r="N17">
-        <v>8.485911999999999</v>
+        <v>8.429528000000001</v>
       </c>
       <c r="O17">
-        <v>0.4162435353069021</v>
+        <v>0.5066471866043398</v>
       </c>
       <c r="P17">
-        <v>0.4162435353069021</v>
+        <v>0.5066471866043397</v>
       </c>
       <c r="Q17">
-        <v>296.26368139748</v>
+        <v>255.7470540835271</v>
       </c>
       <c r="R17">
-        <v>2666.37313257732</v>
+        <v>2301.723486751744</v>
       </c>
       <c r="S17">
-        <v>0.1206605303170938</v>
+        <v>0.1205312695280982</v>
       </c>
       <c r="T17">
-        <v>0.1206605303170938</v>
+        <v>0.1205312695280982</v>
       </c>
     </row>
   </sheetData>
